--- a/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_13.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_13.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N339"/>
+  <dimension ref="A1:N340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.318173885345459</v>
+        <v>0.0007002353668212891</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008364200592041016</v>
+        <v>0.0005998611450195312</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00265192985534668</v>
+        <v>0.02644824981689453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 1), (1, 0), (1, 2), (2, 1), (0, 0), (0, 2), (0, 3), (1, 3), (2, 0), (2, 2), (3, 0), (3, 2)]</t>
+          <t>[[0, 1], [1, 1], [1, 0], [1, 2], [2, 1], [0, 0], [0, 2], [0, 3], [1, 3], [2, 0], [2, 2], [3, 0], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 0), (2, 2), (0, 1), (1, 3), (0, 3), (0, 2), (1, 2), (1, 1), (2, 1), (2, 0), (3, 0), (3, 2)]</t>
+          <t>[[3, 1], [1, 0], [2, 2], [0, 1], [1, 3], [0, 3], [0, 2], [1, 2], [1, 1], [2, 1], [2, 0], [3, 0], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[(1, 3), (3, 3), (2, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (3, 2)]</t>
+          <t>[[1, 3], [3, 3], [2, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 2), (3, 3), (2, 3), (3, 2), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0)]</t>
+          <t>[[3, 1], [1, 2], [3, 3], [2, 3], [3, 2], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0]]</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (2, 3), (3, 3), (2, 1), (3, 1), (3, 2), (2, 2), (1, 3), (1, 2), (0, 0), (0, 1), (1, 0)]</t>
+          <t>[[1, 1], [0, 2], [2, 3], [3, 3], [2, 1], [3, 1], [3, 2], [2, 2], [1, 3], [1, 2], [0, 0], [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>[(3, 3), (3, 2), (2, 2), (2, 1), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (2, 3)]</t>
+          <t>[[3, 3], [3, 2], [2, 2], [2, 1], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [2, 3]]</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>[(3, 1), (2, 3), (1, 3), (3, 3), (2, 2), (2, 1), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2), (1, 0), (2, 0)]</t>
+          <t>[[3, 1], [2, 3], [1, 3], [3, 3], [2, 2], [2, 1], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2], [1, 0], [2, 0]]</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>[(2, 0), (0, 2), (1, 3), (2, 3), (3, 2), (3, 3), (1, 2), (2, 2), (1, 1), (0, 0), (2, 1), (0, 1), (1, 0)]</t>
+          <t>[[2, 0], [0, 2], [1, 3], [2, 3], [3, 2], [3, 3], [1, 2], [2, 2], [1, 1], [0, 0], [2, 1], [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>[(3, 3), (0, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (1, 3)]</t>
+          <t>[[3, 3], [0, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>[(3, 3), (0, 3), (1, 3), (2, 2), (3, 0), (2, 0), (1, 2), (0, 1), (0, 0), (0, 2), (1, 1), (1, 0), (2, 1)]</t>
+          <t>[[3, 3], [0, 3], [1, 3], [2, 2], [3, 0], [2, 0], [1, 2], [0, 1], [0, 0], [0, 2], [1, 1], [1, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>[(3, 3), (1, 2), (1, 3), (2, 2), (3, 0), (2, 0), (1, 0), (2, 1), (0, 3), (0, 0), (1, 1), (0, 1), (0, 2)]</t>
+          <t>[[3, 3], [1, 2], [1, 3], [2, 2], [3, 0], [2, 0], [1, 0], [2, 1], [0, 3], [0, 0], [1, 1], [0, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -2978,110 +2978,120 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>80</v>
+        <v>0.9951494246739607</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>234</v>
+        <v>80</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.3491568565368652</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.06051397323608398</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B339" t="inlineStr">
+      <c r="B340" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
+      <c r="C340" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr">
+      <c r="D340" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E339" t="inlineStr">
+      <c r="E340" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F339" t="inlineStr">
+      <c r="F340" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G339" t="inlineStr">
+      <c r="G340" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
+      <c r="H340" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I339" t="inlineStr">
+      <c r="I340" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J339" t="inlineStr">
+      <c r="J340" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K339" t="inlineStr">
+      <c r="K340" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L339" t="inlineStr">
+      <c r="L340" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M339" t="inlineStr">
+      <c r="M340" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N339" t="inlineStr">
+      <c r="N340" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
